--- a/文件目录清单.xlsx
+++ b/文件目录清单.xlsx
@@ -161,7 +161,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +180,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -213,13 +219,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,15 +256,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -266,6 +272,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,76 +588,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H1" sqref="H1:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="19.25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="38.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11" style="15" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="19.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="38.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11" style="12" customWidth="1"/>
+    <col min="6" max="6" width="21.75" style="9" customWidth="1"/>
+    <col min="7" max="13" width="18.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.75" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="27">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -648,22 +681,28 @@
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:15">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -675,22 +714,28 @@
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:15">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -702,239 +747,342 @@
       <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:15">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:15">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:15">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:15">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="10"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="10"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="10"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="10"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="G1:G21"/>
+    <mergeCell ref="H1:M21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>$H$3:$H$21</formula1>
+      <formula1>$N$3:$N$21</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$I$3:$I$19</formula1>
+      <formula1>$O$3:$O$19</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
